--- a/幼儿园/建模素材/蒙台梭利实训室家具、仪器清单（新增）4.28.xlsx
+++ b/幼儿园/建模素材/蒙台梭利实训室家具、仪器清单（新增）4.28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9300"/>
+    <workbookView windowWidth="18468" windowHeight="8855"/>
   </bookViews>
   <sheets>
     <sheet name="GAM蒙台梭利3-6岁教室配置" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <r>
       <rPr>
@@ -193,6 +193,9 @@
     </r>
   </si>
   <si>
+    <t>列1</t>
+  </si>
+  <si>
     <t>生活实践</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
       </rPr>
       <t>(53cm)</t>
     </r>
+  </si>
+  <si>
+    <t>家具类</t>
   </si>
   <si>
     <t>GA0246002</t>
@@ -360,6 +366,9 @@
   </si>
   <si>
     <t>感官材料</t>
+  </si>
+  <si>
+    <t>学习用品类</t>
   </si>
   <si>
     <t>1MM0301</t>
@@ -791,13 +800,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -924,90 +933,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,9 +954,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,8 +1053,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,17 +1063,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1075,6 +1077,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="136"/>
@@ -1105,12 +1114,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1126,19 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,25 +1153,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,7 +1183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,7 +1207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1231,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,25 +1267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,73 +1315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,6 +1436,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1454,46 +1486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,22 +1513,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1542,10 +1539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1554,140 +1551,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1695,6 +1692,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1725,7 +1723,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1746,23 +1744,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1771,77 +1801,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1860,6 +1868,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3332,16 +3341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>112395</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>248920</xdr:rowOff>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>539115</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>551815</xdr:rowOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>182245</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3350,7 +3359,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8653145" y="953770"/>
+          <a:off x="60889515" y="1330325"/>
           <a:ext cx="3557270" cy="3750945"/>
           <a:chOff x="8595472" y="361950"/>
           <a:chExt cx="3632974" cy="4381482"/>
@@ -4267,9 +4276,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table456" displayName="Table456" ref="B2:H41" totalsRowShown="0">
-  <autoFilter ref="B2:H41"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table456" displayName="Table456" ref="B2:I41" totalsRowShown="0">
+  <autoFilter ref="B2:I41"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Item code" dataDxfId="0"/>
     <tableColumn id="2" name="库存代码" dataDxfId="1"/>
     <tableColumn id="3" name="品   名" dataDxfId="2"/>
@@ -4277,6 +4286,7 @@
     <tableColumn id="5" name="数量" dataDxfId="4"/>
     <tableColumn id="6" name="金额" dataDxfId="5"/>
     <tableColumn id="7" name="备注" dataDxfId="6"/>
+    <tableColumn id="8" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4571,900 +4581,983 @@
   <sheetPr/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.6296296296296" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.6296296296296" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.1296296296296" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.62962962962963" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.3796296296296" style="7" customWidth="1"/>
-    <col min="8" max="8" width="20.6296296296296" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.12962962962963" style="9"/>
+    <col min="1" max="1" width="18.1296296296296" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.6296296296296" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.6296296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.1296296296296" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.62962962962963" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.3796296296296" style="8" customWidth="1"/>
+    <col min="8" max="8" width="20.6296296296296" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9.12962962962963" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="61"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="66"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:9">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="32">
+      <c r="D5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="33">
         <v>2069</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="31">
         <v>2</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>4138</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="34" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A6" s="28"/>
-      <c r="B6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="33">
+      <c r="C6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="34">
         <v>559</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="35">
         <v>4</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="35">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>2236</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="36" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="A7" s="37"/>
+      <c r="B7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="34">
         <v>822969</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="34">
         <v>1829</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="38">
         <v>2</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="39">
         <v>3658</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="40" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="34">
         <v>822907</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="34">
         <v>559</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>6</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="39">
         <v>3354</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="40" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="30" t="s">
+    <row r="9" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="32">
+      <c r="C9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="44">
         <v>1389</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="43">
         <v>1</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="43">
         <v>1389</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>24</v>
+      <c r="H9" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="32">
+    <row r="10" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="44">
         <v>179</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="43">
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="e">
+      <c r="G10" s="43" t="e">
         <f>[1]!Table456[[#This Row],[单   价]]*[1]!Table456[[#This Row],[数量]]</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>24</v>
+      <c r="H10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="32">
+    <row r="11" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="44">
         <v>189</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>189</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>24</v>
+      <c r="H11" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="32">
+    <row r="12" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="44">
         <v>989</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="43">
         <v>1</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>989</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>24</v>
+      <c r="H12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="26"/>
+      <c r="A13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A14" s="27"/>
-      <c r="B14" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="27"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="32">
+    <row r="15" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="44">
         <v>159</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="43">
         <v>1</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>159</v>
       </c>
-      <c r="H15" s="33" t="s">
-        <v>40</v>
+      <c r="H15" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="32">
+    <row r="16" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="44">
         <v>589</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="43">
         <v>1</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>589</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>40</v>
+      <c r="H16" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="32">
+    <row r="17" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="44">
         <v>999</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="43">
         <v>1</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>999</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>40</v>
+      <c r="H17" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A18" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="A18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="32">
+    <row r="20" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="44">
         <v>349</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="43">
         <v>1</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>349</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>53</v>
+      <c r="H20" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="32">
+    <row r="21" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="44">
         <v>589</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="43">
         <v>1</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>589</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>53</v>
+      <c r="H21" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="32">
+    <row r="22" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="33">
         <v>419</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="31">
         <v>1</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>419</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>53</v>
+      <c r="H22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="32">
+    <row r="23" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="44">
         <v>1669</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="43">
         <v>1</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>1669</v>
       </c>
-      <c r="H23" s="33" t="s">
-        <v>53</v>
+      <c r="H23" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="32">
+    <row r="24" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="44">
         <v>2439</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="43">
         <v>1</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>2439</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>53</v>
+      <c r="H24" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="32">
+    <row r="25" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="44">
         <v>799</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="43">
         <v>1</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>799</v>
       </c>
-      <c r="H25" s="33" t="s">
-        <v>53</v>
+      <c r="H25" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29" t="s">
+    <row r="26" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="44">
         <v>69</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="32">
-        <v>69</v>
-      </c>
-      <c r="F26" s="30">
+      <c r="F26" s="43">
         <v>1</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>69</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>53</v>
+      <c r="H26" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="32">
+    <row r="27" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="33">
         <v>59</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="31">
         <v>1</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>59</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>53</v>
+      <c r="H27" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A28" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="26"/>
+      <c r="A28" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A29" s="27"/>
-      <c r="B29" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="26"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="27"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A30" s="28"/>
-      <c r="B30" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="33">
+    <row r="30" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A30" s="29"/>
+      <c r="B30" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="34">
         <v>209</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="34">
         <v>1</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="34">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>209</v>
       </c>
-      <c r="H30" s="33" t="s">
-        <v>81</v>
+      <c r="H30" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="33">
+    <row r="31" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A31" s="29"/>
+      <c r="B31" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="34">
         <v>409</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="34">
         <v>1</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="34">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>409</v>
       </c>
-      <c r="H31" s="33" t="s">
-        <v>81</v>
+      <c r="H31" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A32" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="A32" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="27"/>
-      <c r="B33" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="55"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="32">
+    <row r="34" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="33">
         <v>1129</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="31">
         <v>1</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>1129</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>91</v>
+      <c r="H34" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="30">
+    <row r="35" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="43">
         <v>823411</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="D35" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="44">
         <v>1019</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="43">
         <v>1</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>1019</v>
       </c>
-      <c r="H35" s="33" t="s">
-        <v>91</v>
+      <c r="H35" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="32">
+    <row r="36" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="44">
         <v>7339</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="43">
         <v>1</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>7339</v>
       </c>
-      <c r="H36" s="33" t="s">
-        <v>91</v>
+      <c r="H36" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A37" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
+      <c r="A37" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="32">
+    <row r="38" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="33">
         <v>3539</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="31">
         <v>2</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>7078</v>
       </c>
-      <c r="H38" s="33" t="s">
-        <v>101</v>
+      <c r="H38" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="32">
+    <row r="39" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="33">
         <v>539</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="31">
         <v>3</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>1617</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="32">
+    <row r="40" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="33">
         <v>1979</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="31">
         <v>1</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>1979</v>
       </c>
-      <c r="H40" s="33" t="s">
-        <v>101</v>
+      <c r="H40" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="32">
+    <row r="41" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="33">
         <v>1279</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="31">
         <v>1</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>1279</v>
       </c>
-      <c r="H41" s="33" t="s">
-        <v>111</v>
+      <c r="H41" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" ht="11.4" spans="1:8">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60"/>
+    <row r="42" s="4" customFormat="1" ht="11.4" spans="1:8">
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/幼儿园/建模素材/蒙台梭利实训室家具、仪器清单（新增）4.28.xlsx
+++ b/幼儿园/建模素材/蒙台梭利实训室家具、仪器清单（新增）4.28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="8855"/>
+    <workbookView windowWidth="18468" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="GAM蒙台梭利3-6岁教室配置" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <r>
       <rPr>
@@ -196,10 +196,19 @@
     <t>列1</t>
   </si>
   <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
     <t>生活实践</t>
   </si>
   <si>
     <t>生活实践类的活动有助于培养幼儿有序、专注、协调、独立的品质。</t>
+  </si>
+  <si>
+    <t>模型名字</t>
   </si>
   <si>
     <t>通过培养这些品质，孩子及整个蒙台梭利环境都会更平静，从而学习也会变得更容易。</t>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>家具类</t>
+  </si>
+  <si>
+    <t>yuanzhuo</t>
   </si>
   <si>
     <t>GA0246002</t>
@@ -278,6 +290,9 @@
     </r>
   </si>
   <si>
+    <t>cutuiyi</t>
+  </si>
+  <si>
     <t>GA0241002</t>
   </si>
   <si>
@@ -301,42 +316,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>粗腿椅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>坐高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31cm)</t>
-    </r>
+    <t>changzhuo</t>
   </si>
   <si>
     <t>1MM030</t>
@@ -380,6 +360,9 @@
     <t>GAM立体几何竹篮</t>
   </si>
   <si>
+    <t>jihezhulan</t>
+  </si>
+  <si>
     <t>1MM0271</t>
   </si>
   <si>
@@ -415,6 +398,9 @@
     </r>
   </si>
   <si>
+    <t>shixiangshipingfang</t>
+  </si>
+  <si>
     <t>语言学习</t>
   </si>
   <si>
@@ -462,6 +448,9 @@
     <t>GAM基础阅读分析结构试图</t>
   </si>
   <si>
+    <t>yuedufenxishitu</t>
+  </si>
+  <si>
     <t>1MM061EN</t>
   </si>
   <si>
@@ -492,6 +481,9 @@
     <t>数学材料</t>
   </si>
   <si>
+    <t>muchuanzhu</t>
+  </si>
+  <si>
     <t>1MM112</t>
   </si>
   <si>
@@ -510,6 +502,9 @@
     <t>GAM大算珠架</t>
   </si>
   <si>
+    <t>suanzhujia</t>
+  </si>
+  <si>
     <t>1MM0923</t>
   </si>
   <si>
@@ -528,6 +523,9 @@
     <t>GAM乘法串珠</t>
   </si>
   <si>
+    <t>chengfachuanzhu</t>
+  </si>
+  <si>
     <t>1MM114</t>
   </si>
   <si>
@@ -546,6 +544,9 @@
     <t>GAM100粒金色串珠：尼龙</t>
   </si>
   <si>
+    <t>jinsechuanzhu</t>
+  </si>
+  <si>
     <t>1MM1262</t>
   </si>
   <si>
@@ -553,6 +554,9 @@
   </si>
   <si>
     <t>GAM彩色串珠1-9</t>
+  </si>
+  <si>
+    <t>caisechuanzhu</t>
   </si>
   <si>
     <t>生物学习</t>
@@ -610,6 +614,9 @@
     <t>生物材料</t>
   </si>
   <si>
+    <t>yexingkapian</t>
+  </si>
+  <si>
     <t>1MM21110</t>
   </si>
   <si>
@@ -636,6 +643,9 @@
     </r>
   </si>
   <si>
+    <t>yexingkapianxiang</t>
+  </si>
+  <si>
     <t>地理环境</t>
   </si>
   <si>
@@ -657,6 +667,9 @@
     <t>地理材料</t>
   </si>
   <si>
+    <t>shijiediqiuyi</t>
+  </si>
+  <si>
     <t>1MM221B</t>
   </si>
   <si>
@@ -670,6 +683,9 @@
   </si>
   <si>
     <t>地理拼图柜</t>
+  </si>
+  <si>
+    <t>dilipintugui</t>
   </si>
   <si>
     <t>阅读区角</t>
@@ -731,6 +747,9 @@
     <t>收纳陈列书籍</t>
   </si>
   <si>
+    <t>qugui</t>
+  </si>
+  <si>
     <t>GAI206000</t>
   </si>
   <si>
@@ -757,6 +776,9 @@
     </r>
   </si>
   <si>
+    <t>kaodian</t>
+  </si>
+  <si>
     <t>GA0254800</t>
   </si>
   <si>
@@ -764,6 +786,9 @@
   </si>
   <si>
     <t>附加书柜（需要另配低柜）</t>
+  </si>
+  <si>
+    <t>fujiashugui</t>
   </si>
   <si>
     <t>GA0250200</t>
@@ -794,21 +819,24 @@
   <si>
     <t>阅读环境营造</t>
   </si>
+  <si>
+    <t>kaikougui</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,17 +961,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -955,59 +975,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1023,14 +991,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1045,17 +1050,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,15 +1095,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,7 +1175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1199,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1259,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,19 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,91 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,20 +1472,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,17 +1520,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,7 +1548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,40 +1567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1551,140 +1585,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1701,7 +1735,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1717,7 +1751,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1732,7 +1766,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1753,7 +1787,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1772,7 +1806,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,7 +1835,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1822,10 +1856,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1893,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1868,7 +1902,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1924,7 +1965,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
     <cellStyle name="货币 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2003,7 +2044,7 @@
         <sz val="12"/>
         <color theme="1"/>
       </font>
-      <numFmt numFmtId="176" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+      <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
       <alignment horizontal="center" wrapText="1"/>
       <border>
         <left/>
@@ -2072,6 +2113,27 @@
         <color theme="1"/>
       </font>
       <alignment horizontal="left" wrapText="1"/>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.399884029663991"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399884029663991"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="left" indent="1"/>
       <border>
         <left/>
         <right/>
@@ -2237,7 +2299,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>27305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2262,51 +2324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57150" y="3561080"/>
-          <a:ext cx="1214755" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>471160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>84534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>914720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>696534</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="730" name="图片 729"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="470535" y="4237355"/>
-          <a:ext cx="443865" cy="611505"/>
+          <a:ext cx="1214755" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2319,13 +2337,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035289</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>697725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2349,7 +2367,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="24050625"/>
+          <a:off x="257175" y="23288625"/>
           <a:ext cx="777875" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2363,13 +2381,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1005736</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>602134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2393,7 +2411,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="24945975"/>
+          <a:off x="266700" y="24183975"/>
           <a:ext cx="738505" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2407,13 +2425,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>864954</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>697725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2437,7 +2455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="25574625"/>
+          <a:off x="257175" y="24812625"/>
           <a:ext cx="607695" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2451,13 +2469,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>163969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1285876</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>678675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2481,7 +2499,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="26414730"/>
+          <a:off x="161925" y="25652730"/>
           <a:ext cx="1081405" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2495,13 +2513,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>159385</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1250464</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>709350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2519,7 +2537,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="159385" y="5048250"/>
+          <a:off x="159385" y="4286250"/>
           <a:ext cx="1083945" cy="575945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2533,13 +2551,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333696</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>28548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123896</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>604548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2557,7 +2575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="5704840"/>
+          <a:off x="333375" y="4942840"/>
           <a:ext cx="789940" cy="576580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2571,13 +2589,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>191490</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>112291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1183703</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>688291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2595,7 +2613,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="191135" y="6550660"/>
+          <a:off x="191135" y="5788660"/>
           <a:ext cx="992505" cy="575945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2609,13 +2627,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>224070</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>79116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1209161</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>655116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2633,7 +2651,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="223520" y="7279640"/>
+          <a:off x="223520" y="6517640"/>
           <a:ext cx="985520" cy="575945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2647,13 +2665,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>97414</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>124696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1291745</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>736696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2671,7 +2689,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="97155" y="15707360"/>
+          <a:off x="97155" y="14945360"/>
           <a:ext cx="1146175" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2685,13 +2703,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>240459</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>126428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1148699</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>738428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2709,7 +2727,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="240030" y="16471265"/>
+          <a:off x="240030" y="15709265"/>
           <a:ext cx="908050" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2723,13 +2741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>168515</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>131624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1220643</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>743624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2753,7 +2771,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168275" y="17238345"/>
+          <a:off x="168275" y="16476345"/>
           <a:ext cx="1052195" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2767,13 +2785,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>397259</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>108242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>991899</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>720242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2791,7 +2809,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396875" y="13404850"/>
+          <a:off x="396875" y="12642850"/>
           <a:ext cx="594995" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2805,13 +2823,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>191930</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>122964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1197228</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>734964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2829,7 +2847,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="191770" y="14181455"/>
+          <a:off x="191770" y="13419455"/>
           <a:ext cx="1005205" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2843,13 +2861,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>227505</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1161654</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>735830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2867,7 +2885,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="227330" y="14944725"/>
+          <a:off x="227330" y="14182725"/>
           <a:ext cx="934085" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2881,13 +2899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>92654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8033</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>704654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2905,7 +2923,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11864975"/>
+          <a:off x="0" y="11102975"/>
           <a:ext cx="1250950" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2919,13 +2937,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>199542</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>101314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1189617</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>713314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2941,7 +2959,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="199390" y="12635865"/>
+          <a:off x="199390" y="11873865"/>
           <a:ext cx="989965" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2955,13 +2973,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>45197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1034756</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>657197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2979,7 +2997,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="8769985"/>
+          <a:off x="247650" y="8007985"/>
           <a:ext cx="786765" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2993,13 +3011,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>83297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1085982</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>695297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3023,7 +3041,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="9570085"/>
+          <a:off x="257175" y="8808085"/>
           <a:ext cx="828675" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3037,13 +3055,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>54722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1108159</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>666722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3067,7 +3085,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="10303510"/>
+          <a:off x="190500" y="9541510"/>
           <a:ext cx="917575" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3081,13 +3099,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>55724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1010507</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>667724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3105,7 +3123,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="19448145"/>
+          <a:off x="295275" y="18686145"/>
           <a:ext cx="715010" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3119,13 +3137,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>140184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1073238</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>752184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3143,7 +3161,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="332740" y="18770600"/>
+          <a:off x="332740" y="18008600"/>
           <a:ext cx="740410" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3157,13 +3175,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>90985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1232520</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>702985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3182,7 +3200,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="21007705"/>
+          <a:off x="333375" y="20245705"/>
           <a:ext cx="898525" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3219,13 +3237,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>309880</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123246</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>707885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3244,7 +3262,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="309880" y="21774785"/>
+          <a:off x="309880" y="21012785"/>
           <a:ext cx="812800" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3281,13 +3299,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>90985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>926307</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>702985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3306,7 +3324,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304165" y="22531705"/>
+          <a:off x="304165" y="21769705"/>
           <a:ext cx="621665" cy="612140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3349,7 +3367,7 @@
     <xdr:to>
       <xdr:col>97</xdr:col>
       <xdr:colOff>182245</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>166370</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3359,8 +3377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="60889515" y="1330325"/>
-          <a:ext cx="3557270" cy="3750945"/>
+          <a:off x="61723270" y="1330325"/>
+          <a:ext cx="3557270" cy="2988945"/>
           <a:chOff x="8595472" y="361950"/>
           <a:chExt cx="3632974" cy="4381482"/>
         </a:xfrm>
@@ -4276,9 +4294,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table456" displayName="Table456" ref="B2:I41" totalsRowShown="0">
-  <autoFilter ref="B2:I41"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table456" displayName="Table456" ref="B2:K40" totalsRowShown="0">
+  <autoFilter ref="B2:K40"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Item code" dataDxfId="0"/>
     <tableColumn id="2" name="库存代码" dataDxfId="1"/>
     <tableColumn id="3" name="品   名" dataDxfId="2"/>
@@ -4286,7 +4304,9 @@
     <tableColumn id="5" name="数量" dataDxfId="4"/>
     <tableColumn id="6" name="金额" dataDxfId="5"/>
     <tableColumn id="7" name="备注" dataDxfId="6"/>
-    <tableColumn id="8" name="列1"/>
+    <tableColumn id="8" name="列1" dataDxfId="7"/>
+    <tableColumn id="9" name="列2"/>
+    <tableColumn id="10" name="列3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4579,10 +4599,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="15"/>
@@ -4595,7 +4615,9 @@
     <col min="6" max="6" width="8.62962962962963" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.3796296296296" style="8" customWidth="1"/>
     <col min="8" max="8" width="20.6296296296296" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.12962962962963" style="10"/>
+    <col min="9" max="9" width="12.5555555555556" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.8611111111111" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.12962962962963" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="55.5" customHeight="1" spans="1:9">
@@ -4611,7 +4633,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:11">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -4639,13 +4661,19 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
+    <row r="3" s="2" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A3" s="23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -4653,11 +4681,14 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="27"/>
+      <c r="I3" s="67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A4" s="28"/>
       <c r="B4" s="24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -4666,16 +4697,16 @@
       <c r="G4" s="25"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
+    <row r="5" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A5" s="29"/>
       <c r="B5" s="30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="33">
         <v>2069</v>
@@ -4688,19 +4719,22 @@
         <v>4138</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
+    <row r="6" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A6" s="29"/>
       <c r="B6" s="34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" s="34">
         <v>559</v>
@@ -4713,19 +4747,22 @@
         <v>2236</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
+    <row r="7" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A7" s="37"/>
       <c r="B7" s="34" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="34">
         <v>822969</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="34">
         <v>1829</v>
@@ -4737,150 +4774,147 @@
         <v>3658</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A8" s="37"/>
-      <c r="B8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="34">
-        <v>822907</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="34">
-        <v>559</v>
-      </c>
-      <c r="F8" s="38">
-        <v>6</v>
-      </c>
-      <c r="G8" s="39">
-        <v>3354</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>16</v>
+    <row r="8" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1389</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43">
+        <v>1389</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="9" s="4" customFormat="1" ht="60" customHeight="1" spans="1:10">
       <c r="A9" s="41"/>
       <c r="B9" s="42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E9" s="44">
-        <v>1389</v>
+        <v>179</v>
       </c>
       <c r="F9" s="43">
         <v>1</v>
       </c>
-      <c r="G9" s="43">
-        <v>1389</v>
+      <c r="G9" s="43" t="e">
+        <f>[1]!Table456[[#This Row],[单   价]]*[1]!Table456[[#This Row],[数量]]</f>
+        <v>#REF!</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A10" s="41"/>
       <c r="B10" s="42" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E10" s="44">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F10" s="43">
         <v>1</v>
       </c>
-      <c r="G10" s="43" t="e">
-        <f>[1]!Table456[[#This Row],[单   价]]*[1]!Table456[[#This Row],[数量]]</f>
-        <v>#REF!</v>
+      <c r="G10" s="43">
+        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
+        <v>189</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="11" s="4" customFormat="1" ht="60" customHeight="1" spans="1:10">
       <c r="A11" s="41"/>
       <c r="B11" s="42" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E11" s="44">
-        <v>189</v>
+        <v>989</v>
       </c>
       <c r="F11" s="43">
         <v>1</v>
       </c>
       <c r="G11" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>189</v>
+        <v>989</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="44">
-        <v>989</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43">
-        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>989</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>27</v>
-      </c>
+    <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>38</v>
+      <c r="A13" s="28"/>
+      <c r="B13" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -4889,108 +4923,111 @@
       <c r="G13" s="47"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A14" s="28"/>
-      <c r="B14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="27"/>
+    <row r="14" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="44">
+        <v>159</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1</v>
+      </c>
+      <c r="G14" s="43">
+        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
+        <v>159</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="15" s="4" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A15" s="41"/>
       <c r="B15" s="42" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="44">
-        <v>159</v>
+        <v>589</v>
       </c>
       <c r="F15" s="43">
         <v>1</v>
       </c>
       <c r="G15" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>159</v>
+        <v>589</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A16" s="41"/>
       <c r="B16" s="42" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E16" s="44">
-        <v>589</v>
+        <v>999</v>
       </c>
       <c r="F16" s="43">
         <v>1</v>
       </c>
       <c r="G16" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>589</v>
+        <v>999</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="44">
-        <v>999</v>
-      </c>
-      <c r="F17" s="43">
-        <v>1</v>
-      </c>
-      <c r="G17" s="43">
-        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>999</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>27</v>
-      </c>
+    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A18" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="A18" s="28"/>
       <c r="B18" s="24" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -4999,248 +5036,263 @@
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A19" s="28"/>
-      <c r="B19" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+    <row r="19" s="4" customFormat="1" ht="60" customHeight="1" spans="1:11">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="44">
+        <v>349</v>
+      </c>
+      <c r="F19" s="43">
+        <v>1</v>
+      </c>
+      <c r="G19" s="43">
+        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
+        <v>349</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A20" s="41"/>
       <c r="B20" s="42" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E20" s="44">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="F20" s="43">
         <v>1</v>
       </c>
       <c r="G20" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="I20" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="44">
-        <v>589</v>
-      </c>
-      <c r="F21" s="43">
+    <row r="21" s="3" customFormat="1" ht="60" customHeight="1" spans="1:11">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="33">
+        <v>419</v>
+      </c>
+      <c r="F21" s="31">
         <v>1</v>
       </c>
-      <c r="G21" s="43">
-        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>589</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="33">
-        <v>419</v>
-      </c>
-      <c r="F22" s="31">
-        <v>1</v>
-      </c>
-      <c r="G22" s="31">
+      <c r="G21" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>419</v>
       </c>
-      <c r="H22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>27</v>
+      <c r="H21" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="22" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1669</v>
+      </c>
+      <c r="F22" s="43">
+        <v>1</v>
+      </c>
+      <c r="G22" s="43">
+        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
+        <v>1669</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A23" s="41"/>
       <c r="B23" s="42" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E23" s="44">
-        <v>1669</v>
+        <v>2439</v>
       </c>
       <c r="F23" s="43">
         <v>1</v>
       </c>
       <c r="G23" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>1669</v>
+        <v>2439</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="I23" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A24" s="41"/>
       <c r="B24" s="42" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E24" s="44">
-        <v>2439</v>
+        <v>799</v>
       </c>
       <c r="F24" s="43">
         <v>1</v>
       </c>
       <c r="G24" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>2439</v>
+        <v>799</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="I24" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="25" s="4" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A25" s="41"/>
       <c r="B25" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="44">
         <v>69</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="44">
-        <v>799</v>
       </c>
       <c r="F25" s="43">
         <v>1</v>
       </c>
       <c r="G25" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>799</v>
+        <v>69</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="I25" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="44">
-        <v>69</v>
-      </c>
-      <c r="F26" s="43">
+    <row r="26" s="3" customFormat="1" ht="60" customHeight="1" spans="1:11">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="33">
+        <v>59</v>
+      </c>
+      <c r="F26" s="31">
         <v>1</v>
       </c>
-      <c r="G26" s="43">
-        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>69</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="33">
-        <v>59</v>
-      </c>
-      <c r="F27" s="31">
-        <v>1</v>
-      </c>
-      <c r="G27" s="31">
+      <c r="G26" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>59</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>27</v>
-      </c>
+      <c r="H26" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A27" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A28" s="23" t="s">
-        <v>78</v>
-      </c>
+      <c r="A28" s="28"/>
       <c r="B28" s="48" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -5249,323 +5301,338 @@
       <c r="G28" s="47"/>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A29" s="28"/>
-      <c r="B29" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="27"/>
+    <row r="29" s="3" customFormat="1" ht="60" customHeight="1" spans="1:11">
+      <c r="A29" s="29"/>
+      <c r="B29" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="34">
+        <v>209</v>
+      </c>
+      <c r="F29" s="34">
+        <v>1</v>
+      </c>
+      <c r="G29" s="34">
+        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
+        <v>209</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="30" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="30" s="3" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A30" s="29"/>
       <c r="B30" s="34" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E30" s="34">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="F30" s="34">
         <v>1</v>
       </c>
       <c r="G30" s="34">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>27</v>
+        <v>97</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A31" s="29"/>
-      <c r="B31" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="34">
-        <v>409</v>
-      </c>
-      <c r="F31" s="34">
-        <v>1</v>
-      </c>
-      <c r="G31" s="34">
-        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>409</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>16</v>
-      </c>
+    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A31" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A32" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="55"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="28"/>
-      <c r="B33" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="33">
+    <row r="33" s="3" customFormat="1" ht="60" customHeight="1" spans="1:10">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="33">
         <v>1129</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F33" s="31">
         <v>1</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G33" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
         <v>1129</v>
       </c>
-      <c r="H34" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="67" t="s">
-        <v>27</v>
+      <c r="H33" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="34" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="43">
+        <v>823411</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="44">
+        <v>1019</v>
+      </c>
+      <c r="F34" s="43">
+        <v>1</v>
+      </c>
+      <c r="G34" s="43">
+        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
+        <v>1019</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="60" customHeight="1" spans="1:10">
       <c r="A35" s="41"/>
       <c r="B35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="43">
-        <v>823411</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>96</v>
+        <v>113</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="E35" s="44">
-        <v>1019</v>
+        <v>7339</v>
       </c>
       <c r="F35" s="43">
         <v>1</v>
       </c>
       <c r="G35" s="43">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>1019</v>
+        <v>7339</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>27</v>
+        <v>109</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="44">
-        <v>7339</v>
-      </c>
-      <c r="F36" s="43">
-        <v>1</v>
-      </c>
-      <c r="G36" s="43">
+    <row r="36" s="2" customFormat="1" ht="60" customHeight="1" spans="1:10">
+      <c r="A36" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+      <c r="J36" s="67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="60" customHeight="1" spans="1:10">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="33">
+        <v>3539</v>
+      </c>
+      <c r="F37" s="31">
+        <v>2</v>
+      </c>
+      <c r="G37" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>7339</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>16</v>
+        <v>7078</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="70" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A37" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55"/>
-    </row>
-    <row r="38" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="38" s="3" customFormat="1" ht="60" customHeight="1" spans="1:10">
       <c r="A38" s="29"/>
       <c r="B38" s="30" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>103</v>
+        <v>124</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>125</v>
       </c>
       <c r="E38" s="33">
-        <v>3539</v>
+        <v>539</v>
       </c>
       <c r="F38" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>7078</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>104</v>
-      </c>
+        <v>1617</v>
+      </c>
+      <c r="H38" s="34"/>
       <c r="I38" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="39" s="3" customFormat="1" ht="60" customHeight="1" spans="1:10">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>107</v>
+        <v>128</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="E39" s="33">
-        <v>539</v>
+        <v>1979</v>
       </c>
       <c r="F39" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>1617</v>
-      </c>
-      <c r="H39" s="34"/>
+        <v>1979</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="I39" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J39" s="70" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="40" s="3" customFormat="1" ht="60" customHeight="1" spans="1:10">
       <c r="A40" s="29"/>
       <c r="B40" s="30" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>110</v>
+        <v>132</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>133</v>
       </c>
       <c r="E40" s="33">
-        <v>1979</v>
+        <v>1279</v>
       </c>
       <c r="F40" s="31">
         <v>1</v>
       </c>
       <c r="G40" s="31">
         <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>1979</v>
+        <v>1279</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J40" s="70" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="33">
-        <v>1279</v>
-      </c>
-      <c r="F41" s="31">
-        <v>1</v>
-      </c>
-      <c r="G41" s="31">
-        <f>Table456[[#This Row],[单   价]]*Table456[[#This Row],[数量]]</f>
-        <v>1279</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" ht="11.4" spans="1:8">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+    <row r="41" s="4" customFormat="1" ht="11.4" spans="1:8">
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
